--- a/biology/Zoologie/Formica_maculipennis/Formica_maculipennis.xlsx
+++ b/biology/Zoologie/Formica_maculipennis/Formica_maculipennis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Formica maculipennis est une espèce fossile de fourmi du genre Formica dans la tribu des Formicini.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Formica maculipennis est décrite en 1935 par le paléontologue français Nicolas Théobald[1],[2]. 
-Fossiles
-L'holotype de l'ère Cénozoïque, et de l'époque Miocène (23 à 5,3 Ma.) a été trouvé dans des randannites de la localité d'Auxillac dans la commune de La Canourgue, dans le département de la Lozère[2]et était conservé dans la collection de l'Institut de Géologie de Clermont-Ferrand[1].
-Citations
-Cette espèce est citée en 1976 par Civet et, en 2012, par Bolton[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Formica maculipennis est décrite en 1935 par le paléontologue français Nicolas Théobald,. 
 </t>
         </is>
       </c>
@@ -543,13 +553,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de l'ère Cénozoïque, et de l'époque Miocène (23 à 5,3 Ma.) a été trouvé dans des randannites de la localité d'Auxillac dans la commune de La Canourgue, dans le département de la Lozèreet était conservé dans la collection de l'Institut de Géologie de Clermont-Ferrand.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Formica_maculipennis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_maculipennis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Citations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est citée en 1976 par Civet et, en 2012, par Bolton.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Formica_maculipennis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Formica_maculipennis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-L'échantillon n'est qu'une aile de 5 mm de long et 2 mm de large. Sa couleur est brun-noir, avec une tache claire vers l'extrémité, tache qui s'étend entre la cellule discoïdale et le stigma, vers les bords de l'aile qui ont une étroite frange plus sombre. La nervation est très nette[1].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échantillon n'est qu'une aile de 5 mm de long et 2 mm de large. Sa couleur est brun-noir, avec une tache claire vers l'extrémité, tache qui s'étend entre la cellule discoïdale et le stigma, vers les bords de l'aile qui ont une étroite frange plus sombre. La nervation est très nette.
 </t>
         </is>
       </c>
